--- a/Boss-sheet-converting.xlsx
+++ b/Boss-sheet-converting.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9000" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="20201104" sheetId="4" r:id="rId4"/>
     <sheet name="20201107" sheetId="5" r:id="rId5"/>
     <sheet name="20201108 - all converted" sheetId="7" r:id="rId6"/>
-    <sheet name="20201111" sheetId="2" r:id="rId7"/>
-    <sheet name="20201119" sheetId="8" r:id="rId8"/>
+    <sheet name="20201111 - arvo converted" sheetId="2" r:id="rId7"/>
+    <sheet name="20201119 - morn converted" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="Cal_Endtime">0.999305555555556</definedName>
@@ -2507,6 +2507,27 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <color theme="1" tint="0.34998626667073579"/>
       </font>
@@ -3657,27 +3678,6 @@
           <bgColor theme="5" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -3789,14 +3789,14 @@
   <autoFilter ref="A1:I59"/>
   <tableColumns count="9">
     <tableColumn id="1" name="TIME" totalsRowLabel="Total" dataCellStyle="Time"/>
-    <tableColumn id="2" name="417" dataDxfId="225" dataCellStyle="Table_Details"/>
-    <tableColumn id="3" name="418" dataDxfId="224" dataCellStyle="Table_Details"/>
-    <tableColumn id="4" name="422" dataDxfId="223" dataCellStyle="Table_Details"/>
-    <tableColumn id="5" name="423" dataDxfId="222" dataCellStyle="Table_Details"/>
-    <tableColumn id="6" name="425" dataDxfId="221" dataCellStyle="Table_Details"/>
-    <tableColumn id="7" name="426" dataDxfId="220" dataCellStyle="Table_Details"/>
+    <tableColumn id="2" name="417" dataDxfId="149" dataCellStyle="Table_Details"/>
+    <tableColumn id="3" name="418" dataDxfId="148" dataCellStyle="Table_Details"/>
+    <tableColumn id="4" name="422" dataDxfId="147" dataCellStyle="Table_Details"/>
+    <tableColumn id="5" name="423" dataDxfId="146" dataCellStyle="Table_Details"/>
+    <tableColumn id="6" name="425" dataDxfId="145" dataCellStyle="Table_Details"/>
+    <tableColumn id="7" name="426" dataDxfId="144" dataCellStyle="Table_Details"/>
     <tableColumn id="8" name="427" totalsRowFunction="sum" dataCellStyle="Table_Details"/>
-    <tableColumn id="9" name="428" dataDxfId="219" dataCellStyle="Table_Details"/>
+    <tableColumn id="9" name="428" dataDxfId="143" dataCellStyle="Table_Details"/>
   </tableColumns>
   <tableStyleInfo name="Class Schedule" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -5425,262 +5425,262 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:H1">
-    <cfRule type="expression" dxfId="218" priority="15">
+    <cfRule type="expression" dxfId="225" priority="15">
       <formula>(A1=ThisWeekday)*($B2&lt;Cal_Endtime)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="expression" dxfId="217" priority="3">
+    <cfRule type="expression" dxfId="224" priority="3">
       <formula>(I1=ThisWeekday)*($B2&lt;Cal_Endtime)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W4:AD59 W61:AD63">
-    <cfRule type="expression" dxfId="216" priority="37">
+    <cfRule type="expression" dxfId="223" priority="37">
       <formula>(W4=W3)*(W$3=ThisWeekday)*(W4&lt;&gt;0)*($W4&lt;Cal_Endtime)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="215" priority="38">
+    <cfRule type="expression" dxfId="222" priority="38">
       <formula>(W$3=ThisWeekday)*(W4&lt;&gt;0)*($W4&lt;Cal_Endtime)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="39">
+    <cfRule type="expression" dxfId="221" priority="39">
       <formula>(W4=W3)*(W4&lt;&gt;0)*($W4&lt;Cal_Endtime)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="40">
+    <cfRule type="expression" dxfId="220" priority="40">
       <formula>(W4&lt;&gt;0)*($W4&lt;Cal_Endtime)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="212" priority="41">
+    <cfRule type="expression" dxfId="219" priority="41">
       <formula>(W$3=ThisWeekday)*($W4&lt;Cal_Endtime)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="42">
+    <cfRule type="expression" dxfId="218" priority="42">
       <formula>W4=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:I2">
-    <cfRule type="expression" dxfId="210" priority="63">
+    <cfRule type="expression" dxfId="217" priority="63">
       <formula>(B2=B1)*(W$3=ThisWeekday)*(B2&lt;&gt;0)*($B2&lt;Cal_Endtime)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="209" priority="64">
+    <cfRule type="expression" dxfId="216" priority="64">
       <formula>(W$3=ThisWeekday)*(B2&lt;&gt;0)*($B2&lt;Cal_Endtime)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="65">
+    <cfRule type="expression" dxfId="215" priority="65">
       <formula>(B2=B1)*(B2&lt;&gt;0)*($B2&lt;Cal_Endtime)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="66">
+    <cfRule type="expression" dxfId="214" priority="66">
       <formula>(B2&lt;&gt;0)*($B2&lt;Cal_Endtime)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="67">
+    <cfRule type="expression" dxfId="213" priority="67">
       <formula>(W$3=ThisWeekday)*($B2&lt;Cal_Endtime)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="68">
+    <cfRule type="expression" dxfId="212" priority="68">
       <formula>B2=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:AD3">
-    <cfRule type="expression" dxfId="204" priority="69">
+    <cfRule type="expression" dxfId="211" priority="69">
       <formula>(W3=B2)*(W$3=ThisWeekday)*(W3&lt;&gt;0)*($W3&lt;Cal_Endtime)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="203" priority="70">
+    <cfRule type="expression" dxfId="210" priority="70">
       <formula>(W$3=ThisWeekday)*(W3&lt;&gt;0)*($W3&lt;Cal_Endtime)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="71">
+    <cfRule type="expression" dxfId="209" priority="71">
       <formula>(W3=B2)*(W3&lt;&gt;0)*($W3&lt;Cal_Endtime)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="72">
+    <cfRule type="expression" dxfId="208" priority="72">
       <formula>(W3&lt;&gt;0)*($W3&lt;Cal_Endtime)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="73">
+    <cfRule type="expression" dxfId="207" priority="73">
       <formula>(W$3=ThisWeekday)*($W3&lt;Cal_Endtime)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="74">
+    <cfRule type="expression" dxfId="206" priority="74">
       <formula>W3=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W60:AD60">
-    <cfRule type="expression" dxfId="198" priority="106">
+    <cfRule type="expression" dxfId="205" priority="106">
       <formula>(W60=#REF!)*(W$3=ThisWeekday)*(W60&lt;&gt;0)*($W60&lt;Cal_Endtime)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="197" priority="107">
+    <cfRule type="expression" dxfId="204" priority="107">
       <formula>(W$3=ThisWeekday)*(W60&lt;&gt;0)*($W60&lt;Cal_Endtime)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="108">
+    <cfRule type="expression" dxfId="203" priority="108">
       <formula>(W60=#REF!)*(W60&lt;&gt;0)*($W60&lt;Cal_Endtime)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="109">
+    <cfRule type="expression" dxfId="202" priority="109">
       <formula>(W60&lt;&gt;0)*($W60&lt;Cal_Endtime)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="110">
+    <cfRule type="expression" dxfId="201" priority="110">
       <formula>(W$3=ThisWeekday)*($W60&lt;Cal_Endtime)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="111">
+    <cfRule type="expression" dxfId="200" priority="111">
       <formula>W60=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:I2">
-    <cfRule type="expression" dxfId="192" priority="118">
+    <cfRule type="expression" dxfId="199" priority="118">
       <formula>($B2&lt;=CurrentTime)*($W3&gt;=CurrentTime)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="191" priority="119">
+    <cfRule type="expression" dxfId="198" priority="119">
       <formula>(ROW(A2)&lt;ROW(INDEX($B$3:$B69,MATCH(Cal_Endtime,$B$3:$B$71,1),1))+1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="120">
+    <cfRule type="expression" dxfId="197" priority="120">
       <formula>A2=A1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="121" stopIfTrue="1">
       <formula>(A2&gt;Cal_Endtime)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="122">
+    <cfRule type="expression" dxfId="195" priority="122">
       <formula>INDEX($B$3:$B69,MATCH(Cal_Endtime,$B$3:$B$71,1),1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:AD3">
-    <cfRule type="expression" dxfId="187" priority="123">
+    <cfRule type="expression" dxfId="194" priority="123">
       <formula>($W3&lt;=CurrentTime)*($W4&gt;=CurrentTime)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="124">
+    <cfRule type="expression" dxfId="193" priority="124">
       <formula>(ROW(W3)&lt;ROW(INDEX($B$3:$B70,MATCH(Cal_Endtime,$B$3:$B$71,1),1))+1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="125">
+    <cfRule type="expression" dxfId="192" priority="125">
       <formula>W3=B2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="126" stopIfTrue="1">
       <formula>(W3&gt;Cal_Endtime)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="127">
+    <cfRule type="expression" dxfId="190" priority="127">
       <formula>INDEX($B$3:$B70,MATCH(Cal_Endtime,$B$3:$B$71,1),1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="182" priority="128">
+    <cfRule type="expression" dxfId="189" priority="128">
       <formula>($W7&lt;=CurrentTime)*($W8&gt;=CurrentTime)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="129">
+    <cfRule type="expression" dxfId="188" priority="129">
       <formula>(ROW(A3)&lt;ROW(INDEX($B$3:$B74,MATCH(Cal_Endtime,$B$3:$B$71,1),1))+1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="130">
+    <cfRule type="expression" dxfId="187" priority="130">
       <formula>A3=#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="131" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="131" stopIfTrue="1">
       <formula>(A3&gt;Cal_Endtime)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="132">
+    <cfRule type="expression" dxfId="185" priority="132">
       <formula>INDEX($B$3:$B74,MATCH(Cal_Endtime,$B$3:$B$71,1),1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A54">
-    <cfRule type="expression" dxfId="177" priority="133">
+    <cfRule type="expression" dxfId="184" priority="133">
       <formula>($W8&lt;=CurrentTime)*($W9&gt;=CurrentTime)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="134">
+    <cfRule type="expression" dxfId="183" priority="134">
       <formula>(ROW(A4)&lt;ROW(INDEX($B$3:$B75,MATCH(Cal_Endtime,$B$3:$B$71,1),1))+1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="135">
+    <cfRule type="expression" dxfId="182" priority="135">
       <formula>A4=A3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="136" stopIfTrue="1">
       <formula>(A4&gt;Cal_Endtime)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="137">
+    <cfRule type="expression" dxfId="180" priority="137">
       <formula>INDEX($B$3:$B75,MATCH(Cal_Endtime,$B$3:$B$71,1),1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:A59">
-    <cfRule type="expression" dxfId="172" priority="138">
+    <cfRule type="expression" dxfId="179" priority="138">
       <formula>(#REF!&lt;=CurrentTime)*(#REF!&gt;=CurrentTime)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="139">
+    <cfRule type="expression" dxfId="178" priority="139">
       <formula>(ROW(A56)&lt;ROW(INDEX($B$3:$B127,MATCH(Cal_Endtime,$B$3:$B$71,1),1))+1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="140">
+    <cfRule type="expression" dxfId="177" priority="140">
       <formula>A56=A55</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="141" stopIfTrue="1">
+    <cfRule type="expression" dxfId="176" priority="141" stopIfTrue="1">
       <formula>(A56&gt;Cal_Endtime)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="142">
+    <cfRule type="expression" dxfId="175" priority="142">
       <formula>INDEX($B$3:$B127,MATCH(Cal_Endtime,$B$3:$B$71,1),1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="expression" dxfId="167" priority="143">
+    <cfRule type="expression" dxfId="174" priority="143">
       <formula>($W59&lt;=CurrentTime)*(#REF!&gt;=CurrentTime)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="144">
+    <cfRule type="expression" dxfId="173" priority="144">
       <formula>(ROW(A55)&lt;ROW(INDEX($B$3:$B126,MATCH(Cal_Endtime,$B$3:$B$71,1),1))+1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="145">
+    <cfRule type="expression" dxfId="172" priority="145">
       <formula>A55=A54</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="146" stopIfTrue="1">
       <formula>(A55&gt;Cal_Endtime)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="147">
+    <cfRule type="expression" dxfId="170" priority="147">
       <formula>INDEX($B$3:$B126,MATCH(Cal_Endtime,$B$3:$B$71,1),1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W4:AD58">
-    <cfRule type="expression" dxfId="162" priority="148">
+    <cfRule type="expression" dxfId="169" priority="148">
       <formula>($W4&lt;=CurrentTime)*($W5&gt;=CurrentTime)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="149">
+    <cfRule type="expression" dxfId="168" priority="149">
       <formula>(ROW(W4)&lt;ROW(INDEX($B$3:$B71,MATCH(Cal_Endtime,$B$3:$B$71,1),1))+1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="150">
+    <cfRule type="expression" dxfId="167" priority="150">
       <formula>W4=W3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="151" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="151" stopIfTrue="1">
       <formula>(W4&gt;Cal_Endtime)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="152">
+    <cfRule type="expression" dxfId="165" priority="152">
       <formula>INDEX($B$3:$B71,MATCH(Cal_Endtime,$B$3:$B$71,1),1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W60:AD60">
-    <cfRule type="expression" dxfId="157" priority="153">
+    <cfRule type="expression" dxfId="164" priority="153">
       <formula>($W60&lt;=CurrentTime)*($W61&gt;=CurrentTime)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="154">
+    <cfRule type="expression" dxfId="163" priority="154">
       <formula>(ROW(W60)&lt;ROW(INDEX($B$3:$B133,MATCH(Cal_Endtime,$B$3:$B$71,1),1))+1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="155">
+    <cfRule type="expression" dxfId="162" priority="155">
       <formula>W60=#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="156" stopIfTrue="1">
       <formula>(W60&gt;Cal_Endtime)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="157">
+    <cfRule type="expression" dxfId="160" priority="157">
       <formula>INDEX($B$3:$B133,MATCH(Cal_Endtime,$B$3:$B$71,1),1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W59:AD59">
-    <cfRule type="expression" dxfId="152" priority="158">
+    <cfRule type="expression" dxfId="159" priority="158">
       <formula>($W59&lt;=CurrentTime)*(#REF!&gt;=CurrentTime)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="159">
+    <cfRule type="expression" dxfId="158" priority="159">
       <formula>(ROW(W59)&lt;ROW(INDEX($B$3:$B126,MATCH(Cal_Endtime,$B$3:$B$71,1),1))+1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="160">
+    <cfRule type="expression" dxfId="157" priority="160">
       <formula>W59=W58</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="161" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="161" stopIfTrue="1">
       <formula>(W59&gt;Cal_Endtime)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="162">
+    <cfRule type="expression" dxfId="155" priority="162">
       <formula>INDEX($B$3:$B126,MATCH(Cal_Endtime,$B$3:$B$71,1),1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W61:AD63">
-    <cfRule type="expression" dxfId="147" priority="163">
+    <cfRule type="expression" dxfId="154" priority="163">
       <formula>($W61&lt;=CurrentTime)*($W62&gt;=CurrentTime)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="164">
+    <cfRule type="expression" dxfId="153" priority="164">
       <formula>(ROW(W61)&lt;ROW(INDEX($B$3:$B134,MATCH(Cal_Endtime,$B$3:$B$71,1),1))+1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="165">
+    <cfRule type="expression" dxfId="152" priority="165">
       <formula>W61=W60</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="166" stopIfTrue="1">
       <formula>(W61&gt;Cal_Endtime)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="167">
+    <cfRule type="expression" dxfId="150" priority="167">
       <formula>INDEX($B$3:$B134,MATCH(Cal_Endtime,$B$3:$B$71,1),1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5707,7 +5707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
@@ -6576,7 +6576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -7445,8 +7445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8314,7 +8314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B23"/>
     </sheetView>
   </sheetViews>
@@ -9088,7 +9088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
@@ -9957,8 +9957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection sqref="A1:I58"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10826,8 +10826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I33" sqref="I33:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
